--- a/biology/Biologie cellulaire et moléculaire/Plasmodesme/Plasmodesme.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Plasmodesme/Plasmodesme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le plasmodesme (du grec plasma, « chose façonnée » et desmos, « lien »)[1] est un canal traversant la paroi cellulaire des plantes, constituant la voie de passage de l'eau, des solutés, des phytohormones et des virus phytopathogènes qui se répandent à travers la plante. Ce canalicule s'ouvre sous l'action de l'actine, de la myosine et de la tubuline. Son diamètre fait environ 20 à 40 nm (à la différence des jonctions gap des cellules animales dont le diamètre est de 2 nm).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plasmodesme (du grec plasma, « chose façonnée » et desmos, « lien ») est un canal traversant la paroi cellulaire des plantes, constituant la voie de passage de l'eau, des solutés, des phytohormones et des virus phytopathogènes qui se répandent à travers la plante. Ce canalicule s'ouvre sous l'action de l'actine, de la myosine et de la tubuline. Son diamètre fait environ 20 à 40 nm (à la différence des jonctions gap des cellules animales dont le diamètre est de 2 nm).
 Il relie les membranes plasmiques et les cytoplasmes des cellules adjacentes, qui forment alors un compartiment continu, le symplasme.
 </t>
         </is>
@@ -512,11 +524,13 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plasmodesme est principalement constitué d'un anneau de protéines globulaires.
 Le centre du plasmodesme est parfois occupé par le desmotubule. C'est une structure membranaire tubulaire reliant les réticulum endoplasmiques des deux cellules voisines. Le canal intradesmotubulaire ainsi formé à l'intérieur du desmotubule permet le passage contrôlé de molécules entre les cellules adjacentes. Il est en lien avec du réticulum endoplasmique rugueux de part et d'autre de la paroi. Le desmotubule est entouré d'un annulus de protéines globulaires sur toute l'épaisseur du plasmodesme. Aux extrémités du desmotubule on observe un col de calloses qui permet l'ouverture ou la fermeture des plasmodesmes.
-L'ensemble des plasmodesmes représente en moyenne 1 % de la surface de la paroi, mais certaines zones en présentent une concentration élevée, alors que d'autres en sont quasiment dépourvues. Il y a en moyenne entre 1000 et 10000 plasmodesmes par cellule, ce qui conduit à la notion de symplasme[2].
+L'ensemble des plasmodesmes représente en moyenne 1 % de la surface de la paroi, mais certaines zones en présentent une concentration élevée, alors que d'autres en sont quasiment dépourvues. Il y a en moyenne entre 1000 et 10000 plasmodesmes par cellule, ce qui conduit à la notion de symplasme.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Histoire évolutive</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pluricellularité exige plusieurs adaptations, notamment la présence d’un continuum des cytoplasmes de cellules adjacentes ou proches afin d'assurer une voie de flux directe et rapide à l'eau, aux solutés (ions, petites protéines, phythormones) et une mutualisation des cytoplasmes dans un tissu (symplasme et apoplasme). Chez les végétaux de la lignée verte et les algues brunes, ce pont cytoplasmique a ainsi été fréquemment sélectionné au cours de l'évolution. L'acquisition des plasmodesmes est convergente chez ces deux lignées et analogue à celle des jonctions communicantes chez les animaux[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pluricellularité exige plusieurs adaptations, notamment la présence d’un continuum des cytoplasmes de cellules adjacentes ou proches afin d'assurer une voie de flux directe et rapide à l'eau, aux solutés (ions, petites protéines, phythormones) et une mutualisation des cytoplasmes dans un tissu (symplasme et apoplasme). Chez les végétaux de la lignée verte et les algues brunes, ce pont cytoplasmique a ainsi été fréquemment sélectionné au cours de l'évolution. L'acquisition des plasmodesmes est convergente chez ces deux lignées et analogue à celle des jonctions communicantes chez les animaux.
 </t>
         </is>
       </c>
